--- a/biology/Botanique/Cerastium_pyrenaicum/Cerastium_pyrenaicum.xlsx
+++ b/biology/Botanique/Cerastium_pyrenaicum/Cerastium_pyrenaicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céraiste des Pyrénées
 Cerastium pyrenaicum (en français le Céraiste des Pyrénées) est une plante vivace herbacée du genre Cerastium et de la famille des Caryophyllaceae.
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cerastium pyrenaicum est décrite par le botaniste français Jacques Étienne Gay en 1832[1], après qu'elle lui ait été signalée par Barthélemy Xatart, le pharmacien botaniste de Prats-de-Mollo[2].
-Synonymes[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cerastium pyrenaicum est décrite par le botaniste français Jacques Étienne Gay en 1832, après qu'elle lui ait été signalée par Barthélemy Xatart, le pharmacien botaniste de Prats-de-Mollo.
+Synonymes
 Cerastium alpinum subsp. pyrenaicum (J.Gay) Bonnier &amp; Layens, 1894
 Cerastium endressianum Prolongo ex F.N.Williams, 1899
 Cerastium latifolium subsp. pyrenaicum (J.Gay) Nyman, 1878
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,10 +591,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerastium pyrenaicum est présente dans la partie orientale des Pyrénées, soit en Catalogne (Espagne), dans les Pyrénées-Orientales et en Ariège (France) et en Andorre[1].
-Cerastium pyrenaicum est une espèce lithophile, qui se rencontre en étage alpin dans les éboulis siliceux[3]. Elle est notamment utilisée en montagne comme marqueur pour évaluer le degré de mobilité superficielle des versants d’éboulis[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerastium pyrenaicum est présente dans la partie orientale des Pyrénées, soit en Catalogne (Espagne), dans les Pyrénées-Orientales et en Ariège (France) et en Andorre.
+Cerastium pyrenaicum est une espèce lithophile, qui se rencontre en étage alpin dans les éboulis siliceux. Elle est notamment utilisée en montagne comme marqueur pour évaluer le degré de mobilité superficielle des versants d’éboulis.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerastium pyrenaicum est évaluée Espèce de préoccupation mineure (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerastium pyrenaicum est évaluée Espèce de préoccupation mineure (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019.
 </t>
         </is>
       </c>
